--- a/Arstotzka stat.xlsx
+++ b/Arstotzka stat.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LipatovKA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draft\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8DCE0F-2ADD-425C-95D7-7EB5BE5413C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB66B2D0-6F18-4C5F-830C-01989259CC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,10 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Арстотцка</t>
   </si>
@@ -160,12 +159,23 @@
   </si>
   <si>
     <t>ОСТАТОК</t>
+  </si>
+  <si>
+    <t>ЗДАНИЯ</t>
+  </si>
+  <si>
+    <t>Население</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -634,24 +644,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,8 +784,81 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,76 +875,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -857,13 +927,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>265058</xdr:rowOff>
@@ -907,13 +977,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>265058</xdr:rowOff>
@@ -957,13 +1027,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>170793</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>408918</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>254219</xdr:rowOff>
@@ -1007,13 +1077,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>210207</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>448332</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>254219</xdr:rowOff>
@@ -1057,13 +1127,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>177362</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>415487</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>267357</xdr:rowOff>
@@ -1107,13 +1177,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>183930</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>422055</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -1157,13 +1227,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>170794</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>408919</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -1207,13 +1277,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>197070</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>435195</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>260788</xdr:rowOff>
@@ -1257,13 +1327,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>197068</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>203638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>435193</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>241081</xdr:rowOff>
@@ -1307,13 +1377,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>441763</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>267357</xdr:rowOff>
@@ -1357,13 +1427,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>426326</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>22336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>664451</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>658</xdr:rowOff>
@@ -1407,13 +1477,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>428297</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>666422</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>248963</xdr:rowOff>
@@ -1457,13 +1527,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>428297</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>14451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>666422</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>262101</xdr:rowOff>
@@ -1507,13 +1577,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>420413</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>658538</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
@@ -1557,13 +1627,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>426983</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>665108</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>300202</xdr:rowOff>
@@ -1607,13 +1677,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>441435</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>679560</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>248965</xdr:rowOff>
@@ -1657,23 +1727,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>434866</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>27590</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428296</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>375745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>672991</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5912</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666421</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>242395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29">
+        <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE523806-3297-49E0-8F9D-E08E06BA495F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9361265-6A48-4B47-8ABA-DFA6AED3EF59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1752,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1695,7 +1765,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13165521" y="2254469"/>
+          <a:off x="13158951" y="1952297"/>
           <a:ext cx="238125" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1707,23 +1777,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428296</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>375745</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>422182</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>666421</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>242395</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660307</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>251945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Рисунок 30">
+        <xdr:cNvPr id="20" name="Рисунок 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9361265-6A48-4B47-8ABA-DFA6AED3EF59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3F4707-6393-4D76-A56A-43D6395D7E74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1802,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1745,7 +1815,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13158951" y="1952297"/>
+          <a:off x="14042932" y="2202372"/>
           <a:ext cx="238125" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2021,13 +2091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,69 +2108,69 @@
     <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="44" t="s">
+      <c r="I1" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="46" t="s">
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-    </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="20" t="s">
         <v>33</v>
       </c>
@@ -2113,12 +2183,18 @@
       <c r="F2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="45"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="67"/>
       <c r="M2" s="18" t="s">
         <v>26</v>
       </c>
@@ -2134,13 +2210,13 @@
       <c r="Q2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="70"/>
+      <c r="T2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
@@ -2149,13 +2225,14 @@
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="49" t="s">
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2173,8 +2250,8 @@
         <v>15</v>
       </c>
       <c r="G3" s="24"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15">
+      <c r="H3" s="22"/>
+      <c r="I3" s="17">
         <v>7</v>
       </c>
       <c r="J3" s="15">
@@ -2188,45 +2265,57 @@
         <v>14</v>
       </c>
       <c r="M3" s="17">
-        <f>10</f>
-        <v>10</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+        <f>10+14+4+3</f>
+        <v>31</v>
+      </c>
+      <c r="N3" s="15">
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="O3" s="15">
+        <f>23</f>
+        <v>23</v>
+      </c>
+      <c r="P3" s="15">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="Q3" s="15"/>
-      <c r="R3" s="22">
+      <c r="R3" s="16">
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50">
+      <c r="S3" s="71">
+        <v>18846379</v>
+      </c>
+      <c r="T3" s="17"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36">
         <v>0.05</v>
       </c>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36">
         <v>0.05</v>
       </c>
-      <c r="AA3" s="50">
+      <c r="AB3" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AB3" s="50">
+      <c r="AC3" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC3" s="55">
+      <c r="AD3" s="41">
         <v>0.73</v>
       </c>
-      <c r="AD3" s="51">
-        <f>1-SUM(T3:AC3)</f>
+      <c r="AE3" s="37">
+        <f>1-SUM(U3:AD3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:31" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2246,8 +2335,8 @@
         <v>28</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="H4" s="7"/>
+      <c r="I4" s="10">
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -2277,36 +2366,39 @@
         <v>92</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="7">
+      <c r="R4" s="11">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="52">
+      <c r="S4" s="75">
+        <v>74106696</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="38">
         <v>0.05</v>
       </c>
-      <c r="U4" s="52">
+      <c r="V4" s="38">
         <v>0.3</v>
       </c>
-      <c r="V4" s="52">
+      <c r="W4" s="38">
         <v>0.35</v>
       </c>
-      <c r="W4" s="52">
+      <c r="X4" s="38">
         <v>0.3</v>
       </c>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="51">
-        <f t="shared" ref="AD4:AD11" si="2">1-SUM(T4:AC4)</f>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="37">
+        <f t="shared" ref="AE4:AE11" si="2">1-SUM(U4:AD4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2326,8 +2418,8 @@
         <v>10</v>
       </c>
       <c r="G5" s="26"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="H5" s="6"/>
+      <c r="I5" s="8">
         <v>15</v>
       </c>
       <c r="J5" s="4">
@@ -2341,8 +2433,8 @@
         <v>34</v>
       </c>
       <c r="M5" s="8">
-        <f>20+203+108</f>
-        <v>331</v>
+        <f>20+203+108-5</f>
+        <v>326</v>
       </c>
       <c r="N5" s="4">
         <f>40</f>
@@ -2360,42 +2452,45 @@
         <f>342+150</f>
         <v>492</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="9">
         <f>12+320</f>
         <v>332</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53">
+      <c r="S5" s="71">
+        <v>65982200</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X5" s="53">
+      <c r="Y5" s="39">
         <v>0.1</v>
       </c>
-      <c r="Y5" s="53">
+      <c r="Z5" s="39">
         <v>0.47</v>
       </c>
-      <c r="Z5" s="53">
+      <c r="AA5" s="39">
         <v>0.12</v>
       </c>
-      <c r="AA5" s="53">
+      <c r="AB5" s="39">
         <v>0.08</v>
       </c>
-      <c r="AB5" s="53">
+      <c r="AC5" s="39">
         <v>0.05</v>
       </c>
-      <c r="AC5" s="57">
+      <c r="AD5" s="43">
         <v>0.04</v>
       </c>
-      <c r="AD5" s="51">
+      <c r="AE5" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:31" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2413,8 +2508,8 @@
         <v>26</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="H6" s="7"/>
+      <c r="I6" s="10">
         <v>12</v>
       </c>
       <c r="J6" s="2">
@@ -2444,36 +2539,40 @@
         <v>50</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="R6" s="7">
+      <c r="R6" s="11">
         <f>80</f>
         <v>80</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52">
+      <c r="S6" s="75">
+        <f>119352255+3161910</f>
+        <v>122514165</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38">
         <v>0.13</v>
       </c>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52">
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38">
         <v>0.2</v>
       </c>
-      <c r="AB6" s="52">
+      <c r="AC6" s="38">
         <v>0.52</v>
       </c>
-      <c r="AC6" s="56">
+      <c r="AD6" s="42">
         <v>0.15</v>
       </c>
-      <c r="AD6" s="51">
+      <c r="AE6" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:31" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2493,8 +2592,8 @@
         <v>28</v>
       </c>
       <c r="G7" s="26"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="H7" s="6"/>
+      <c r="I7" s="8">
         <v>23</v>
       </c>
       <c r="J7" s="4">
@@ -2521,31 +2620,37 @@
         <v>223</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53">
+      <c r="R7" s="9">
+        <f>7+5+12</f>
+        <v>24</v>
+      </c>
+      <c r="S7" s="71">
+        <v>74419206</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39">
         <v>0.1</v>
       </c>
-      <c r="Y7" s="53">
+      <c r="Z7" s="39">
         <v>0.15</v>
       </c>
-      <c r="Z7" s="53">
+      <c r="AA7" s="39">
         <v>0.75</v>
       </c>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="51">
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:31" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2565,8 +2670,8 @@
         <v>44</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="H8" s="7"/>
+      <c r="I8" s="10">
         <v>20</v>
       </c>
       <c r="J8" s="2">
@@ -2596,37 +2701,41 @@
         <v>44</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52">
+      <c r="R8" s="11"/>
+      <c r="S8" s="75">
+        <f>16445914-3161910</f>
+        <v>13284004</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38">
         <v>0.11</v>
       </c>
-      <c r="W8" s="52">
+      <c r="X8" s="38">
         <v>0.4</v>
       </c>
-      <c r="X8" s="52">
+      <c r="Y8" s="38">
         <v>0.17</v>
       </c>
-      <c r="Y8" s="52">
+      <c r="Z8" s="38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z8" s="52">
+      <c r="AA8" s="38">
         <v>0.15</v>
       </c>
-      <c r="AA8" s="52">
+      <c r="AB8" s="38">
         <v>0.1</v>
       </c>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="51">
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:31" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2644,8 +2753,8 @@
         <v>12</v>
       </c>
       <c r="G9" s="26"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="H9" s="6"/>
+      <c r="I9" s="8">
         <v>6</v>
       </c>
       <c r="J9" s="4">
@@ -2667,39 +2776,47 @@
         <f>77</f>
         <v>77</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4">
+        <f>10+3</f>
+        <v>13</v>
+      </c>
       <c r="Q9" s="4"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53">
+      <c r="R9" s="9">
+        <v>8</v>
+      </c>
+      <c r="S9" s="71">
+        <v>30582937</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39">
         <v>0.08</v>
       </c>
-      <c r="X9" s="53">
+      <c r="Y9" s="39">
+        <v>0.13</v>
+      </c>
+      <c r="Z9" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="AA9" s="39">
+        <v>0.22</v>
+      </c>
+      <c r="AB9" s="39">
         <v>0.42</v>
       </c>
-      <c r="Y9" s="53">
-        <v>0.05</v>
-      </c>
-      <c r="Z9" s="53">
-        <v>0.22</v>
-      </c>
-      <c r="AA9" s="53">
-        <v>0.13</v>
-      </c>
-      <c r="AB9" s="53">
+      <c r="AC9" s="39">
         <v>0.1</v>
       </c>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="51">
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2713,8 +2830,8 @@
         <v>0</v>
       </c>
       <c r="G10" s="25"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="7"/>
+      <c r="I10" s="10">
         <v>3</v>
       </c>
       <c r="J10" s="2">
@@ -2732,25 +2849,26 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="51">
+      <c r="R10" s="11"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="37">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:31" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -2766,8 +2884,8 @@
         <v>9</v>
       </c>
       <c r="G11" s="27"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
+      <c r="H11" s="23"/>
+      <c r="I11" s="12">
         <v>2</v>
       </c>
       <c r="J11" s="13">
@@ -2791,50 +2909,388 @@
         <v>18</v>
       </c>
       <c r="Q11" s="13"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54">
+      <c r="R11" s="14"/>
+      <c r="S11" s="76">
+        <v>17932651</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40">
         <v>0.7</v>
       </c>
-      <c r="AA11" s="54">
+      <c r="AB11" s="40">
         <v>0.05</v>
       </c>
-      <c r="AB11" s="54">
+      <c r="AC11" s="40">
         <v>0.1</v>
       </c>
-      <c r="AC11" s="58">
+      <c r="AD11" s="44">
         <v>0.15</v>
       </c>
-      <c r="AD11" s="51">
+      <c r="AE11" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S12" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K11">
     <sortCondition ref="A3:A11"/>
   </sortState>
-  <mergeCells count="11">
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9917766-DFDA-4C0E-8F03-895D26D1386A}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="72">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49">
+        <v>1569887</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49">
+        <f>105889107+7275609+6187539</f>
+        <v>119352255</v>
+      </c>
+      <c r="F1" s="74">
+        <f>E1/COUNT(A:A)</f>
+        <v>3978408.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="72">
+        <v>2</v>
+      </c>
+      <c r="B2" s="49">
+        <v>2150336</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49">
+        <f>SUM(B:B)</f>
+        <v>119352255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="72">
+        <v>3</v>
+      </c>
+      <c r="B3" s="49">
+        <v>3045862</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49">
+        <f>E1-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="72">
+        <v>4</v>
+      </c>
+      <c r="B4" s="49">
+        <v>5409835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
+        <v>5</v>
+      </c>
+      <c r="B5" s="49">
+        <v>4526987</v>
+      </c>
+      <c r="C5" s="50"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="72">
+        <v>6</v>
+      </c>
+      <c r="B6" s="49">
+        <v>4189743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
+        <v>7</v>
+      </c>
+      <c r="B7" s="49">
+        <v>3517896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
+        <v>8</v>
+      </c>
+      <c r="B8" s="49">
+        <v>6598852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
+        <v>9</v>
+      </c>
+      <c r="B9" s="49">
+        <v>8088916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>10</v>
+      </c>
+      <c r="B10" s="49">
+        <v>2568974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
+        <v>11</v>
+      </c>
+      <c r="B11" s="49">
+        <v>3569874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="72">
+        <v>12</v>
+      </c>
+      <c r="B12" s="49">
+        <v>3548996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
+        <v>13</v>
+      </c>
+      <c r="B13" s="49">
+        <v>4123658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
+        <v>14</v>
+      </c>
+      <c r="B14" s="49">
+        <v>3541289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
+        <v>15</v>
+      </c>
+      <c r="B15" s="49">
+        <v>3157851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="72">
+        <v>16</v>
+      </c>
+      <c r="B16" s="49">
+        <v>4896532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="72">
+        <v>17</v>
+      </c>
+      <c r="B17" s="49">
+        <v>3569841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="72">
+        <v>18</v>
+      </c>
+      <c r="B18" s="49">
+        <v>5452369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
+        <v>19</v>
+      </c>
+      <c r="B19" s="49">
+        <v>2314589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="72">
+        <v>20</v>
+      </c>
+      <c r="B20" s="49">
+        <v>4095950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="72">
+        <v>21</v>
+      </c>
+      <c r="B21" s="49">
+        <v>1985321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="72">
+        <v>22</v>
+      </c>
+      <c r="B22" s="49">
+        <v>2598740</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="72">
+        <v>23</v>
+      </c>
+      <c r="B23" s="49">
+        <v>4023690</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="72">
+        <v>24</v>
+      </c>
+      <c r="B24" s="49">
+        <v>5405563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="72">
+        <v>25</v>
+      </c>
+      <c r="B25" s="49">
+        <v>6985412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="72">
+        <v>26</v>
+      </c>
+      <c r="B26" s="49">
+        <v>2563142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="72">
+        <v>27</v>
+      </c>
+      <c r="B27" s="49">
+        <v>5412398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="72">
+        <v>28</v>
+      </c>
+      <c r="B28" s="49">
+        <v>4523987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="72">
+        <v>29</v>
+      </c>
+      <c r="B29" s="49">
+        <v>3659874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="72">
+        <v>30</v>
+      </c>
+      <c r="B30" s="49">
+        <v>2255891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2B0BA1-F8F4-430C-A21D-3B29BC189DC8}">
+  <dimension ref="C1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>13124737</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>51712689</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>4953270</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4316000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>SUM(C1:C5)</f>
+        <v>74106696</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Arstotzka stat.xlsx
+++ b/Arstotzka stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draft\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Project Arstotzka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB66B2D0-6F18-4C5F-830C-01989259CC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB038679-3384-44D9-B95A-B811D311A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -174,7 +177,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -830,6 +833,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,29 +900,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2094,10 +2097,10 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,61 +2119,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="66" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="69" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="20" t="s">
         <v>33</v>
       </c>
@@ -2183,8 +2186,8 @@
       <c r="F2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="55"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
@@ -2194,7 +2197,7 @@
       <c r="K2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="67"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="18" t="s">
         <v>26</v>
       </c>
@@ -2210,10 +2213,10 @@
       <c r="Q2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="70"/>
+      <c r="S2" s="75"/>
       <c r="T2" s="20" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2288,7 @@
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="S3" s="71">
+      <c r="S3" s="52">
         <v>18846379</v>
       </c>
       <c r="T3" s="17"/>
@@ -2370,7 +2373,7 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="S4" s="75">
+      <c r="S4" s="55">
         <v>74106696</v>
       </c>
       <c r="T4" s="10"/>
@@ -2456,7 +2459,7 @@
         <f>12+320</f>
         <v>332</v>
       </c>
-      <c r="S5" s="71">
+      <c r="S5" s="52">
         <v>65982200</v>
       </c>
       <c r="T5" s="8"/>
@@ -2543,7 +2546,7 @@
         <f>80</f>
         <v>80</v>
       </c>
-      <c r="S6" s="75">
+      <c r="S6" s="55">
         <f>119352255+3161910</f>
         <v>122514165</v>
       </c>
@@ -2624,8 +2627,8 @@
         <f>7+5+12</f>
         <v>24</v>
       </c>
-      <c r="S7" s="71">
-        <v>74419206</v>
+      <c r="S7" s="52">
+        <v>69419206</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="39"/>
@@ -2701,10 +2704,11 @@
         <v>44</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="75">
-        <f>16445914-3161910</f>
-        <v>13284004</v>
+      <c r="R8" s="11">
+        <v>5</v>
+      </c>
+      <c r="S8" s="55">
+        <v>63388546</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="38"/>
@@ -2784,8 +2788,8 @@
       <c r="R9" s="9">
         <v>8</v>
       </c>
-      <c r="S9" s="71">
-        <v>30582937</v>
+      <c r="S9" s="52">
+        <v>22382937</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="39"/>
@@ -2850,7 +2854,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="75"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="10"/>
       <c r="U10" s="38"/>
       <c r="V10" s="38"/>
@@ -2910,7 +2914,7 @@
       </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="76">
+      <c r="S11" s="56">
         <v>17932651</v>
       </c>
       <c r="T11" s="12"/>
@@ -2967,7 +2971,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,7 +2985,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="72">
+      <c r="A1" s="53">
         <v>1</v>
       </c>
       <c r="B1" s="49">
@@ -2989,17 +2993,17 @@
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
-      <c r="E1" s="49">
-        <f>105889107+7275609+6187539</f>
-        <v>119352255</v>
-      </c>
-      <c r="F1" s="74">
+      <c r="E1" s="55">
+        <f>16445914-3161910+40000000+6000000</f>
+        <v>59284004</v>
+      </c>
+      <c r="F1" s="54">
         <f>E1/COUNT(A:A)</f>
-        <v>3978408.5</v>
+        <v>2694727.4545454546</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="72">
+      <c r="A2" s="53">
         <v>2</v>
       </c>
       <c r="B2" s="49">
@@ -3009,11 +3013,11 @@
       <c r="D2" s="49"/>
       <c r="E2" s="49">
         <f>SUM(B:B)</f>
-        <v>119352255</v>
+        <v>54504542</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
+      <c r="A3" s="53">
         <v>3</v>
       </c>
       <c r="B3" s="49">
@@ -3023,36 +3027,36 @@
       <c r="D3" s="49"/>
       <c r="E3" s="49">
         <f>E1-E2</f>
-        <v>0</v>
+        <v>4779462</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="72">
+      <c r="A4" s="53">
         <v>4</v>
       </c>
       <c r="B4" s="49">
-        <v>5409835</v>
+        <v>1409835</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+      <c r="A5" s="53">
         <v>5</v>
       </c>
       <c r="B5" s="49">
-        <v>4526987</v>
+        <v>1526987</v>
       </c>
       <c r="C5" s="50"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="72">
+      <c r="A6" s="53">
         <v>6</v>
       </c>
       <c r="B6" s="49">
-        <v>4189743</v>
+        <v>785603</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
+      <c r="A7" s="53">
         <v>7</v>
       </c>
       <c r="B7" s="49">
@@ -3060,23 +3064,23 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+      <c r="A8" s="53">
         <v>8</v>
       </c>
       <c r="B8" s="49">
-        <v>6598852</v>
+        <v>3598852</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+      <c r="A9" s="53">
         <v>9</v>
       </c>
       <c r="B9" s="49">
-        <v>8088916</v>
+        <v>5088916</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
+      <c r="A10" s="53">
         <v>10</v>
       </c>
       <c r="B10" s="49">
@@ -3084,31 +3088,31 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
+      <c r="A11" s="53">
         <v>11</v>
       </c>
       <c r="B11" s="49">
-        <v>3569874</v>
+        <v>2569874</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="72">
+      <c r="A12" s="53">
         <v>12</v>
       </c>
       <c r="B12" s="49">
-        <v>3548996</v>
+        <v>1548996</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="72">
+      <c r="A13" s="53">
         <v>13</v>
       </c>
       <c r="B13" s="49">
-        <v>4123658</v>
+        <v>2123658</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
+      <c r="A14" s="53">
         <v>14</v>
       </c>
       <c r="B14" s="49">
@@ -3116,7 +3120,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="72">
+      <c r="A15" s="53">
         <v>15</v>
       </c>
       <c r="B15" s="49">
@@ -3124,7 +3128,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
+      <c r="A16" s="53">
         <v>16</v>
       </c>
       <c r="B16" s="49">
@@ -3132,7 +3136,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="72">
+      <c r="A17" s="53">
         <v>17</v>
       </c>
       <c r="B17" s="49">
@@ -3140,108 +3144,76 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+      <c r="A18" s="53">
         <v>18</v>
       </c>
       <c r="B18" s="49">
-        <v>5452369</v>
+        <v>1452369</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="A19" s="53">
         <v>19</v>
       </c>
       <c r="B19" s="49">
-        <v>2314589</v>
+        <v>2214589</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="72">
+      <c r="A20" s="53">
         <v>20</v>
       </c>
       <c r="B20" s="49">
-        <v>4095950</v>
+        <v>2595950</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="72">
+      <c r="A21" s="53">
         <v>21</v>
       </c>
       <c r="B21" s="49">
-        <v>1985321</v>
+        <v>985321</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
+      <c r="A22" s="53">
         <v>22</v>
       </c>
       <c r="B22" s="49">
-        <v>2598740</v>
+        <v>585124</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
-        <v>23</v>
-      </c>
-      <c r="B23" s="49">
-        <v>4023690</v>
-      </c>
+      <c r="A23" s="53"/>
+      <c r="B23" s="49"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
-        <v>24</v>
-      </c>
-      <c r="B24" s="49">
-        <v>5405563</v>
-      </c>
+      <c r="A24" s="53"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
-        <v>25</v>
-      </c>
-      <c r="B25" s="49">
-        <v>6985412</v>
-      </c>
+      <c r="A25" s="53"/>
+      <c r="B25" s="49"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
-        <v>26</v>
-      </c>
-      <c r="B26" s="49">
-        <v>2563142</v>
-      </c>
+      <c r="A26" s="53"/>
+      <c r="B26" s="49"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
-        <v>27</v>
-      </c>
-      <c r="B27" s="49">
-        <v>5412398</v>
-      </c>
+      <c r="A27" s="53"/>
+      <c r="B27" s="49"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="72">
-        <v>28</v>
-      </c>
-      <c r="B28" s="49">
-        <v>4523987</v>
-      </c>
+      <c r="A28" s="53"/>
+      <c r="B28" s="49"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
-        <v>29</v>
-      </c>
-      <c r="B29" s="49">
-        <v>3659874</v>
-      </c>
+      <c r="A29" s="53"/>
+      <c r="B29" s="49"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="72">
-        <v>30</v>
-      </c>
-      <c r="B30" s="49">
-        <v>2255891</v>
-      </c>
+      <c r="A30" s="53"/>
+      <c r="B30" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3250,7 +3222,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2B0BA1-F8F4-430C-A21D-3B29BC189DC8}">
-  <dimension ref="C1:C13"/>
+  <dimension ref="C1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -3259,38 +3231,90 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1">
-        <v>13124737</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>51712689</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>4953270</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>4316000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <f>SUM(C1:C5)</f>
-        <v>74106696</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="73"/>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="76">
+        <v>1652899</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76">
+        <v>874512</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="76">
+        <f>E4+E5</f>
+        <v>874512</v>
+      </c>
+      <c r="D5" s="76"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="76">
+        <f>C4-C5</f>
+        <v>778387</v>
+      </c>
+      <c r="D6" s="76"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arstotzka stat.xlsx
+++ b/Arstotzka stat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Project Arstotzka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LipatovKA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB038679-3384-44D9-B95A-B811D311A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841B7E2D-0016-4CB0-A112-FB374F18AA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Арстотцка</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Население</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,6 +852,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,7 +910,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1481,106 +1490,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>428297</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>666422</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>248963</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Рисунок 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5421FBB-C208-4F8A-A327-E73BAC3126E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13158952" y="769882"/>
-          <a:ext cx="238125" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>428297</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>666422</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>262101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Рисунок 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6F9566-151E-4DA4-A97A-B462C27C411B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13158952" y="1052348"/>
-          <a:ext cx="238125" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
       <xdr:colOff>420413</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1819,6 +1728,106 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14042932" y="2202372"/>
+          <a:ext cx="238125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>417635</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>655760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>263618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E5FF05-C913-4B1D-B8D0-8B4AB32C3F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14038385" y="776654"/>
+          <a:ext cx="238125" cy="248964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>424203</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>662328</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>258009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CE2B0B-383F-486F-B514-CC454DCB011A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14044953" y="1036128"/>
           <a:ext cx="238125" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2097,10 +2106,10 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,61 +2128,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="57" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="72" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="74" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="20" t="s">
         <v>33</v>
       </c>
@@ -2186,8 +2195,8 @@
       <c r="F2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="61"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="20" t="s">
         <v>12</v>
       </c>
@@ -2197,7 +2206,7 @@
       <c r="K2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="73"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="18" t="s">
         <v>26</v>
       </c>
@@ -2216,7 +2225,7 @@
       <c r="R2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="75"/>
+      <c r="S2" s="76"/>
       <c r="T2" s="20" t="s">
         <v>40</v>
       </c>
@@ -2374,20 +2383,20 @@
         <v>5</v>
       </c>
       <c r="S4" s="55">
-        <v>74106696</v>
+        <v>75685389</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="38">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="V4" s="38">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="38">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="X4" s="38">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
@@ -2466,14 +2475,12 @@
       <c r="U5" s="39"/>
       <c r="V5" s="39"/>
       <c r="W5" s="39"/>
-      <c r="X5" s="39">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="X5" s="39"/>
       <c r="Y5" s="39">
         <v>0.1</v>
       </c>
       <c r="Z5" s="39">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="AA5" s="39">
         <v>0.12</v>
@@ -2482,7 +2489,7 @@
         <v>0.08</v>
       </c>
       <c r="AC5" s="39">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AD5" s="43">
         <v>0.04</v>
@@ -2968,16 +2975,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9917766-DFDA-4C0E-8F03-895D26D1386A}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="77" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -2988,62 +2995,61 @@
       <c r="A1" s="53">
         <v>1</v>
       </c>
-      <c r="B1" s="49">
-        <v>1569887</v>
+      <c r="B1" s="78">
+        <v>569887</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="55">
-        <f>16445914-3161910+40000000+6000000</f>
-        <v>59284004</v>
+        <v>74106696</v>
       </c>
       <c r="F1" s="54">
         <f>E1/COUNT(A:A)</f>
-        <v>2694727.4545454546</v>
+        <v>1089804.3529411764</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="53">
         <v>2</v>
       </c>
-      <c r="B2" s="49">
-        <v>2150336</v>
+      <c r="B2" s="78">
+        <v>1150336</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49">
         <f>SUM(B:B)</f>
-        <v>54504542</v>
+        <v>75685389</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>3</v>
       </c>
-      <c r="B3" s="49">
-        <v>3045862</v>
+      <c r="B3" s="78">
+        <v>945862</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49">
         <f>E1-E2</f>
-        <v>4779462</v>
+        <v>-1578693</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
         <v>4</v>
       </c>
-      <c r="B4" s="49">
-        <v>1409835</v>
+      <c r="B4" s="78">
+        <v>409835</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
         <v>5</v>
       </c>
-      <c r="B5" s="49">
-        <v>1526987</v>
+      <c r="B5" s="78">
+        <v>526987</v>
       </c>
       <c r="C5" s="50"/>
     </row>
@@ -3051,7 +3057,7 @@
       <c r="A6" s="53">
         <v>6</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="78">
         <v>785603</v>
       </c>
     </row>
@@ -3059,119 +3065,119 @@
       <c r="A7" s="53">
         <v>7</v>
       </c>
-      <c r="B7" s="49">
-        <v>3517896</v>
+      <c r="B7" s="78">
+        <v>517896</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>8</v>
       </c>
-      <c r="B8" s="49">
-        <v>3598852</v>
+      <c r="B8" s="78">
+        <v>598852</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <v>9</v>
       </c>
-      <c r="B9" s="49">
-        <v>5088916</v>
+      <c r="B9" s="78">
+        <v>788916</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>10</v>
       </c>
-      <c r="B10" s="49">
-        <v>2568974</v>
+      <c r="B10" s="78">
+        <v>568974</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>11</v>
       </c>
-      <c r="B11" s="49">
-        <v>2569874</v>
+      <c r="B11" s="78">
+        <v>569874</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>12</v>
       </c>
-      <c r="B12" s="49">
-        <v>1548996</v>
+      <c r="B12" s="78">
+        <v>548996</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
         <v>13</v>
       </c>
-      <c r="B13" s="49">
-        <v>2123658</v>
+      <c r="B13" s="78">
+        <v>123658</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
         <v>14</v>
       </c>
-      <c r="B14" s="49">
-        <v>3541289</v>
+      <c r="B14" s="78">
+        <v>541289</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
         <v>15</v>
       </c>
-      <c r="B15" s="49">
-        <v>3157851</v>
+      <c r="B15" s="78">
+        <v>457851</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
         <v>16</v>
       </c>
-      <c r="B16" s="49">
-        <v>4896532</v>
+      <c r="B16" s="78">
+        <v>896532</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>17</v>
       </c>
-      <c r="B17" s="49">
-        <v>3569841</v>
+      <c r="B17" s="78">
+        <v>569841</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>18</v>
       </c>
-      <c r="B18" s="49">
-        <v>1452369</v>
+      <c r="B18" s="78">
+        <v>452369</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>19</v>
       </c>
-      <c r="B19" s="49">
-        <v>2214589</v>
+      <c r="B19" s="78">
+        <v>614589</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="53">
         <v>20</v>
       </c>
-      <c r="B20" s="49">
-        <v>2595950</v>
+      <c r="B20" s="78">
+        <v>595950</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
         <v>21</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="78">
         <v>985321</v>
       </c>
     </row>
@@ -3179,41 +3185,380 @@
       <c r="A22" s="53">
         <v>22</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="78">
         <v>585124</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="53">
+        <v>23</v>
+      </c>
+      <c r="B23" s="78">
+        <v>678532</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="53">
+        <v>24</v>
+      </c>
+      <c r="B24" s="78">
+        <v>1246384</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="53">
+        <v>25</v>
+      </c>
+      <c r="B25" s="78">
+        <v>654123</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="53">
+        <v>26</v>
+      </c>
+      <c r="B26" s="78">
+        <v>745112</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="53">
+        <v>27</v>
+      </c>
+      <c r="B27" s="78">
+        <v>1452365</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="53">
+        <v>28</v>
+      </c>
+      <c r="B28" s="78">
+        <v>541258</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="53">
+        <v>29</v>
+      </c>
+      <c r="B29" s="78">
+        <v>854125</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="53">
+        <v>30</v>
+      </c>
+      <c r="B30" s="78">
+        <v>985412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>31</v>
+      </c>
+      <c r="B31" s="78">
+        <v>745512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="53">
+        <v>32</v>
+      </c>
+      <c r="B32" s="78">
+        <v>845233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="53">
+        <v>33</v>
+      </c>
+      <c r="B33" s="78">
+        <v>745213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="53">
+        <v>34</v>
+      </c>
+      <c r="B34" s="78">
+        <v>985412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="53">
+        <v>35</v>
+      </c>
+      <c r="B35" s="78">
+        <v>854123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="53">
+        <v>36</v>
+      </c>
+      <c r="B36" s="78">
+        <v>652388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="53">
+        <v>37</v>
+      </c>
+      <c r="B37" s="78">
+        <v>741552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>38</v>
+      </c>
+      <c r="B38" s="78">
+        <v>658892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="53">
+        <v>39</v>
+      </c>
+      <c r="B39" s="78">
+        <v>955144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="53">
+        <v>40</v>
+      </c>
+      <c r="B40" s="78">
+        <v>1451258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="53">
+        <v>41</v>
+      </c>
+      <c r="B41" s="78">
+        <v>1000255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="53">
+        <v>42</v>
+      </c>
+      <c r="B42" s="78">
+        <v>1204455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="53">
+        <v>43</v>
+      </c>
+      <c r="B43" s="78">
+        <v>955125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="53">
+        <v>44</v>
+      </c>
+      <c r="B44" s="78">
+        <v>785123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
+        <v>45</v>
+      </c>
+      <c r="B45" s="78">
+        <v>2100255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="53">
+        <v>46</v>
+      </c>
+      <c r="B46" s="78">
+        <v>7541256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="53">
+        <v>47</v>
+      </c>
+      <c r="B47" s="78">
+        <v>1852233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="53">
+        <v>48</v>
+      </c>
+      <c r="B48" s="78">
+        <v>1563214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="53">
+        <v>49</v>
+      </c>
+      <c r="B49" s="78">
+        <v>1324520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="53">
+        <v>50</v>
+      </c>
+      <c r="B50" s="78">
+        <v>1025233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
+        <v>51</v>
+      </c>
+      <c r="B51" s="78">
+        <v>985412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>52</v>
+      </c>
+      <c r="B52" s="78">
+        <v>845452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="78">
+        <v>965234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="53">
+        <v>54</v>
+      </c>
+      <c r="B54" s="78">
+        <v>742560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="53">
+        <v>55</v>
+      </c>
+      <c r="B55" s="78">
+        <v>802536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="53">
+        <v>56</v>
+      </c>
+      <c r="B56" s="78">
+        <v>905012</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="53">
+        <v>57</v>
+      </c>
+      <c r="B57" s="78">
+        <v>741205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="53">
+        <v>58</v>
+      </c>
+      <c r="B58" s="78">
+        <v>714023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
+        <v>59</v>
+      </c>
+      <c r="B59" s="78">
+        <v>1025223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="53">
+        <v>60</v>
+      </c>
+      <c r="B60" s="78">
+        <v>1541256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="53">
+        <v>61</v>
+      </c>
+      <c r="B61" s="78">
+        <v>852210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="53">
+        <v>62</v>
+      </c>
+      <c r="B62" s="78">
+        <v>905236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="53">
+        <v>63</v>
+      </c>
+      <c r="B63" s="78">
+        <v>1804125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="53">
+        <v>64</v>
+      </c>
+      <c r="B64" s="78">
+        <v>1750652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="53">
+        <v>65</v>
+      </c>
+      <c r="B65" s="78">
+        <v>4512369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="53">
+        <v>66</v>
+      </c>
+      <c r="B66" s="78">
+        <v>3564125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="53">
+        <v>67</v>
+      </c>
+      <c r="B67" s="78">
+        <v>2564889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="53">
+        <v>68</v>
+      </c>
+      <c r="B68" s="78">
+        <v>1515621</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3225,13 +3570,13 @@
   <dimension ref="C1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.25">
@@ -3244,35 +3589,35 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="76">
+      <c r="C4" s="57">
         <v>1652899</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57">
         <v>874512</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="76">
+      <c r="C5" s="57">
         <f>E4+E5</f>
         <v>874512</v>
       </c>
-      <c r="D5" s="76"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="76">
+      <c r="C6" s="57">
         <f>C4-C5</f>
         <v>778387</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E9"/>
